--- a/QRPH/CCG/StructureDefinition-ccg-di-organization.xlsx
+++ b/QRPH/CCG/StructureDefinition-ccg-di-organization.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0-comment</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-20T16:28:52-05:00</t>
+    <t>2025-10-02T10:26:47-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2402,7 +2402,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="11" hidden="true">
+    <row r="11">
       <c r="A11" t="s" s="2">
         <v>146</v>
       </c>
@@ -2516,7 +2516,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="12" hidden="true">
+    <row r="12">
       <c r="A12" t="s" s="2">
         <v>156</v>
       </c>
@@ -2750,7 +2750,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="14" hidden="true">
+    <row r="14">
       <c r="A14" t="s" s="2">
         <v>180</v>
       </c>
@@ -2982,7 +2982,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="16" hidden="true">
+    <row r="16">
       <c r="A16" t="s" s="2">
         <v>194</v>
       </c>
@@ -3098,7 +3098,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="17" hidden="true">
+    <row r="17">
       <c r="A17" t="s" s="2">
         <v>205</v>
       </c>
@@ -4358,12 +4358,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AN27">
-    <filterColumn colId="6">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="27">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
